--- a/Sales Reports/SalesResults-2024-03-07.xlsx
+++ b/Sales Reports/SalesResults-2024-03-07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\UIPath Academy\Excel Report\Sales Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC99EF-B943-4AA3-8268-F8EAF1DC18F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ECDFC3-32CE-4636-A27B-2EAC3CE28A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="945" windowWidth="21600" windowHeight="11475" xr2:uid="{5924FCC3-BE8E-44CB-9925-DBB5E0139513}"/>
+    <workbookView xWindow="645" yWindow="945" windowWidth="21600" windowHeight="11475" xr2:uid="{DD9A13BD-FBEA-4EA9-B016-8DC7A85AA091}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>FlatWhite</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -223,9 +226,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Americano</c:v>
                 </c:pt>
@@ -242,18 +245,21 @@
                   <c:v>Flat White</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>FlatWhite</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Hot Tea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Iced Tea</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Latte</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Macchiato</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Mocha</c:v>
                 </c:pt>
               </c:strCache>
@@ -261,46 +267,49 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>544</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>558</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.5</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>819</c:v>
+                  <c:v>451.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>738.5</c:v>
+                  <c:v>1021.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>850.5</c:v>
+                  <c:v>822.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>922.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97E8-4E0B-BCBC-726AB72EBAC3}"/>
+              <c16:uniqueId val="{00000000-F456-44DE-8610-B5D1DC3E855A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -375,7 +384,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6239B9-D209-3403-88D3-BAEC20946432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F788FD6-F679-5190-D6CA-293B9FF519D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -397,13 +406,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Panda, Naim Ansary" refreshedDate="45358.537343865741" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{34D68054-AD92-4D2E-B41B-0FE3EDCC98AE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Panda, Naim Ansary" refreshedDate="45358.659650347225" createdVersion="1" refreshedVersion="8" recordCount="50" xr:uid="{B10DCDB9-1B0C-40A7-AD78-6113080D6F1A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D41" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D51" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Item" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="Espresso"/>
         <s v="Americano"/>
         <s v="Macchiato"/>
@@ -414,6 +423,7 @@
         <s v="Cold Brew"/>
         <s v="Hot Tea"/>
         <s v="Iced Tea"/>
+        <s v="FlatWhite"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price ($)" numFmtId="0">
@@ -435,7 +445,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <x v="0"/>
     <n v="3"/>
@@ -499,6 +509,66 @@
   <r>
     <x v="0"/>
     <n v="3"/>
+    <n v="38"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="24"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="45"/>
+    <n v="202.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4.5"/>
+    <n v="50"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="16"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="22"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
     <n v="52"/>
     <n v="156"/>
   </r>
@@ -680,16 +750,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D321D7FE-4FD7-41B2-ABB9-379FA40CF024}" name="SalesByStore" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87BCF45B-53B5-472C-B28F-B5FF5F89C864}" name="SalesByStore" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="11">
+      <items count="12">
         <item x="1"/>
         <item x="3"/>
         <item x="7"/>
         <item x="0"/>
         <item x="5"/>
+        <item x="10"/>
         <item x="8"/>
         <item x="9"/>
         <item x="4"/>
@@ -728,7 +799,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -758,6 +829,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1088,8 +1162,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07832D5E-50EA-409A-B9FF-CA58FBD95FFA}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402D5BA6-2EC5-44E1-B395-F8A96ADB3D2B}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,10 +1175,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>544</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>480</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>558</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,50 +1223,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>444</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>374.5</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>819</v>
+        <v>451.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>738.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>850.5</v>
+        <v>822.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5654.5</v>
+        <v>922.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6740</v>
       </c>
     </row>
   </sheetData>
@@ -1202,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B98C8E-C70A-4DA4-9AC6-AD00C1C4EA54}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B941499F-F494-4AA0-936D-9B90CC0A7941}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D41"/>
+      <selection activeCell="A42" sqref="A42:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,24 +1517,24 @@
         <v>4.5</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4.5</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,10 +1545,10 @@
         <v>4.5</v>
       </c>
       <c r="C18">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>553.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1559,10 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1573,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,10 +1587,10 @@
         <v>3.5</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,10 +1629,10 @@
         <v>3.5</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1657,10 @@
         <v>4.5</v>
       </c>
       <c r="C26">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>603</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1671,10 @@
         <v>4.5</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>225</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,10 +1685,10 @@
         <v>4.5</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>189</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,10 +1727,10 @@
         <v>3.5</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,10 +1769,10 @@
         <v>3.5</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,10 +1797,10 @@
         <v>4.5</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,10 +1811,10 @@
         <v>4.5</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,10 +1825,10 @@
         <v>4.5</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1839,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>93</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,9 +1867,149 @@
         <v>3.5</v>
       </c>
       <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>4.5</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>4.5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>3.5</v>
+      </c>
+      <c r="C51">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>70</v>
       </c>
     </row>
